--- a/geekbench/geekbench.xlsx
+++ b/geekbench/geekbench.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C05CC734-0992-4C88-AFA7-52482F562631}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{479E53E9-5D69-472E-B069-06C13DB739A2}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{C05CC734-0992-4C88-AFA7-52482F562631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A14E7F77-72DD-4026-9BE3-6DC11D94A156}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="5010" windowWidth="21600" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20040" yWindow="630" windowWidth="15975" windowHeight="17295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020" sheetId="2" r:id="rId1"/>
+    <sheet name="2019" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>Neue Benchmarkliste</t>
   </si>
@@ -197,6 +198,171 @@
   </si>
   <si>
     <t>2 x 1400</t>
+  </si>
+  <si>
+    <t>i7-6820HQ</t>
+  </si>
+  <si>
+    <t>4 x 2700</t>
+  </si>
+  <si>
+    <t>Tanix TX3 Mini</t>
+  </si>
+  <si>
+    <t>Amlogic S905W</t>
+  </si>
+  <si>
+    <t>X96Air v2</t>
+  </si>
+  <si>
+    <t>Amlogic S905X3</t>
+  </si>
+  <si>
+    <t>Z600 workstation</t>
+  </si>
+  <si>
+    <t>Xeon X5550</t>
+  </si>
+  <si>
+    <t>8 x 2666</t>
+  </si>
+  <si>
+    <t>iPad Pro 10.5</t>
+  </si>
+  <si>
+    <t>A10X Fusion</t>
+  </si>
+  <si>
+    <t>3 x 2340</t>
+  </si>
+  <si>
+    <t>4 x 1900</t>
+  </si>
+  <si>
+    <t>Qualcomm 820</t>
+  </si>
+  <si>
+    <t>Silentium AC</t>
+  </si>
+  <si>
+    <t>Athlon 64 3000+</t>
+  </si>
+  <si>
+    <t>1 x 1803</t>
+  </si>
+  <si>
+    <t>AC Silentium II</t>
+  </si>
+  <si>
+    <t>Phenom II X4 955</t>
+  </si>
+  <si>
+    <t>4 x 3199</t>
+  </si>
+  <si>
+    <t>Core2Duo P8400</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 4</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>HP ZBook 15 G3</t>
+  </si>
+  <si>
+    <t>Quadro M1000</t>
+  </si>
+  <si>
+    <t>GeForce GTX 960</t>
+  </si>
+  <si>
+    <t>Radeon RX 470</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S7</t>
+  </si>
+  <si>
+    <t>GeForce GTX 650</t>
+  </si>
+  <si>
+    <t>Radeon HD 5670</t>
+  </si>
+  <si>
+    <t>Iris Pro</t>
+  </si>
+  <si>
+    <t>HD Graphics 5300</t>
+  </si>
+  <si>
+    <t>HD Graphics 4000</t>
+  </si>
+  <si>
+    <t>Samsung GalaxyNote 8</t>
+  </si>
+  <si>
+    <t>Exynos</t>
+  </si>
+  <si>
+    <t>4 x 2300</t>
+  </si>
+  <si>
+    <t>Mali G71 MP20</t>
+  </si>
+  <si>
+    <t>BCM2835</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Amazon Kindle 8 HD</t>
+  </si>
+  <si>
+    <t>MT8163</t>
+  </si>
+  <si>
+    <t>4 x 1300</t>
+  </si>
+  <si>
+    <t>Geekbench 5</t>
+  </si>
+  <si>
+    <t>Lenovo Yoga 370</t>
+  </si>
+  <si>
+    <t>i5-7300U</t>
+  </si>
+  <si>
+    <t>HD Graphics 620</t>
+  </si>
+  <si>
+    <t>JetStream</t>
+  </si>
+  <si>
+    <t>NA9FTSKT</t>
+  </si>
+  <si>
+    <t>Adreno 506</t>
+  </si>
+  <si>
+    <t>HD Graphics 5000</t>
+  </si>
+  <si>
+    <t>HD Graphics 3000</t>
+  </si>
+  <si>
+    <t>HD Graphics Gen4</t>
+  </si>
+  <si>
+    <t>HD Graphics 400</t>
+  </si>
+  <si>
+    <t>Mali 450 MP3</t>
+  </si>
+  <si>
+    <t>Mali G31 MP2</t>
   </si>
 </sst>
 </file>
@@ -232,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -254,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -543,10 +712,1379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D653D24C-6F75-4FA8-B5E9-8831F728F129}">
+  <dimension ref="A1:T39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" customWidth="1"/>
+    <col min="18" max="20" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5">
+        <v>915</v>
+      </c>
+      <c r="I5" s="5">
+        <v>878</v>
+      </c>
+      <c r="J5" s="6">
+        <v>11376</v>
+      </c>
+      <c r="K5" s="5">
+        <v>724</v>
+      </c>
+      <c r="L5" s="5">
+        <v>712</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5">
+        <v>645</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1819</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5">
+        <v>465</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1271</v>
+      </c>
+      <c r="J7" s="6">
+        <v>891</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5">
+        <v>755</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2105</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1569</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5">
+        <v>835</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2892</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3364</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5">
+        <v>845</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4187</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3557</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="1"/>
+      <c r="N10">
+        <v>4697</v>
+      </c>
+      <c r="P10">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>36</v>
+      </c>
+      <c r="S10">
+        <v>180</v>
+      </c>
+      <c r="T10">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>1088</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3527</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2909</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>1303</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2219</v>
+      </c>
+      <c r="J12" s="1">
+        <v>542</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12">
+        <v>5646</v>
+      </c>
+      <c r="P12">
+        <v>43</v>
+      </c>
+      <c r="S12">
+        <v>156</v>
+      </c>
+      <c r="T12">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13">
+        <v>8665</v>
+      </c>
+      <c r="P13">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+      <c r="R13">
+        <v>51</v>
+      </c>
+      <c r="S13">
+        <v>107</v>
+      </c>
+      <c r="T13">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>1719</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3741</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6938</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14">
+        <v>8897</v>
+      </c>
+      <c r="P14">
+        <v>45</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>71</v>
+      </c>
+      <c r="S14">
+        <v>140</v>
+      </c>
+      <c r="T14">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>349</v>
+      </c>
+      <c r="F15" s="1">
+        <v>583</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>1536</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2523</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>1190</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2163</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2670</v>
+      </c>
+      <c r="N15">
+        <v>11747</v>
+      </c>
+      <c r="P15">
+        <v>64</v>
+      </c>
+      <c r="Q15">
+        <v>50</v>
+      </c>
+      <c r="R15">
+        <v>45</v>
+      </c>
+      <c r="S15">
+        <v>80</v>
+      </c>
+      <c r="T15">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>288</v>
+      </c>
+      <c r="F16" s="1">
+        <v>695</v>
+      </c>
+      <c r="G16" s="1">
+        <v>850</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1717</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4003</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7343</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17">
+        <v>12300</v>
+      </c>
+      <c r="P17">
+        <v>65</v>
+      </c>
+      <c r="Q17">
+        <v>35</v>
+      </c>
+      <c r="R17">
+        <v>145</v>
+      </c>
+      <c r="S17">
+        <v>65</v>
+      </c>
+      <c r="T17">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>1814</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4335</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7600</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18">
+        <v>12201</v>
+      </c>
+      <c r="P18">
+        <v>84</v>
+      </c>
+      <c r="Q18">
+        <v>57</v>
+      </c>
+      <c r="R18">
+        <v>118</v>
+      </c>
+      <c r="S18">
+        <v>71</v>
+      </c>
+      <c r="T18">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="1">
+        <v>549</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1229</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>2647</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5122</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>2284</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4866</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19">
+        <v>19585</v>
+      </c>
+      <c r="P19">
+        <v>97</v>
+      </c>
+      <c r="Q19">
+        <v>39</v>
+      </c>
+      <c r="R19">
+        <v>108</v>
+      </c>
+      <c r="S19">
+        <v>46</v>
+      </c>
+      <c r="T19">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>2793</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5263</v>
+      </c>
+      <c r="J20" s="1">
+        <v>16183</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20">
+        <v>21709</v>
+      </c>
+      <c r="P20">
+        <v>153</v>
+      </c>
+      <c r="Q20">
+        <v>48</v>
+      </c>
+      <c r="R20">
+        <v>297</v>
+      </c>
+      <c r="S20">
+        <v>36</v>
+      </c>
+      <c r="T20">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1">
+        <v>648</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1331</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1781</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3017</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5716</v>
+      </c>
+      <c r="J21" s="1">
+        <v>12290</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21">
+        <v>24676</v>
+      </c>
+      <c r="P21">
+        <v>158</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>247</v>
+      </c>
+      <c r="S21">
+        <v>35</v>
+      </c>
+      <c r="T21">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="1">
+        <v>562</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1414</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1050</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3095</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5825</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6187</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2626</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5677</v>
+      </c>
+      <c r="M22" s="1">
+        <v>6383</v>
+      </c>
+      <c r="N22">
+        <v>25509</v>
+      </c>
+      <c r="P22">
+        <v>120</v>
+      </c>
+      <c r="Q22">
+        <v>95</v>
+      </c>
+      <c r="R22">
+        <v>148</v>
+      </c>
+      <c r="S22">
+        <v>40</v>
+      </c>
+      <c r="T22">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>772</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1424</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2834</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3512</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5972</v>
+      </c>
+      <c r="J23" s="1">
+        <v>12874</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23">
+        <v>26491</v>
+      </c>
+      <c r="P23">
+        <v>123</v>
+      </c>
+      <c r="Q23">
+        <v>57</v>
+      </c>
+      <c r="R23">
+        <v>235</v>
+      </c>
+      <c r="S23">
+        <v>34</v>
+      </c>
+      <c r="T23">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="1">
+        <v>367</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1551</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3101</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>2098</v>
+      </c>
+      <c r="I25" s="1">
+        <v>6359</v>
+      </c>
+      <c r="J25" s="1">
+        <v>22603</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1748</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5983</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="1">
+        <v>831</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1679</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4039</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3763</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6920</v>
+      </c>
+      <c r="J26" s="1">
+        <v>16444</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26">
+        <v>29613</v>
+      </c>
+      <c r="O26">
+        <v>88</v>
+      </c>
+      <c r="P26">
+        <v>156</v>
+      </c>
+      <c r="Q26">
+        <v>76</v>
+      </c>
+      <c r="R26">
+        <v>198</v>
+      </c>
+      <c r="S26">
+        <v>32</v>
+      </c>
+      <c r="T26">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>835</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2262</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6421</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3953</v>
+      </c>
+      <c r="I27" s="1">
+        <v>9527</v>
+      </c>
+      <c r="J27" s="1">
+        <v>30715</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27">
+        <v>31855</v>
+      </c>
+      <c r="O27">
+        <v>102</v>
+      </c>
+      <c r="P27">
+        <v>203</v>
+      </c>
+      <c r="Q27">
+        <v>97</v>
+      </c>
+      <c r="R27">
+        <v>504</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1">
+        <v>951</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3650</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9731</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4402</v>
+      </c>
+      <c r="I28" s="1">
+        <v>14642</v>
+      </c>
+      <c r="J28" s="1">
+        <v>43284</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28">
+        <v>34322</v>
+      </c>
+      <c r="O28">
+        <v>98</v>
+      </c>
+      <c r="P28">
+        <v>166</v>
+      </c>
+      <c r="Q28">
+        <v>80</v>
+      </c>
+      <c r="R28">
+        <v>260</v>
+      </c>
+      <c r="S28">
+        <v>29</v>
+      </c>
+      <c r="T28">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1">
+        <v>546</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3829</v>
+      </c>
+      <c r="G29" s="1">
+        <v>20482</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2484</v>
+      </c>
+      <c r="I29" s="1">
+        <v>14904</v>
+      </c>
+      <c r="J29" s="1">
+        <v>79873</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2054</v>
+      </c>
+      <c r="L29" s="1">
+        <v>14313</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
+        <v>20497</v>
+      </c>
+      <c r="O29" s="1">
+        <v>60</v>
+      </c>
+      <c r="P29" s="1">
+        <v>98</v>
+      </c>
+      <c r="Q29">
+        <v>46</v>
+      </c>
+      <c r="R29">
+        <v>155</v>
+      </c>
+      <c r="S29">
+        <v>47</v>
+      </c>
+      <c r="T29">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1">
+        <v>937</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3263</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4957</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4428</v>
+      </c>
+      <c r="I30" s="1">
+        <v>15582</v>
+      </c>
+      <c r="J30" s="1">
+        <v>29291</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30">
+        <v>39203</v>
+      </c>
+      <c r="P30">
+        <v>260</v>
+      </c>
+      <c r="Q30">
+        <v>171</v>
+      </c>
+      <c r="R30">
+        <v>364</v>
+      </c>
+      <c r="S30">
+        <v>22</v>
+      </c>
+      <c r="T30">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1">
+        <v>521</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3881</v>
+      </c>
+      <c r="G31" s="1">
+        <v>36618</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2484</v>
+      </c>
+      <c r="I31" s="1">
+        <v>14904</v>
+      </c>
+      <c r="J31" s="1">
+        <v>109221</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2058</v>
+      </c>
+      <c r="L31" s="1">
+        <v>14416</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -569,16 +2107,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="8"/>
@@ -606,7 +2144,7 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="3" t="s">
         <v>50</v>
       </c>

--- a/geekbench/geekbench.xlsx
+++ b/geekbench/geekbench.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{C05CC734-0992-4C88-AFA7-52482F562631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A14E7F77-72DD-4026-9BE3-6DC11D94A156}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{C05CC734-0992-4C88-AFA7-52482F562631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D021925-485A-41DD-8883-2AF25CCFC59E}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="630" windowWidth="15975" windowHeight="17295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17385" yWindow="630" windowWidth="18630" windowHeight="17295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -715,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D653D24C-6F75-4FA8-B5E9-8831F728F129}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+      <selection pane="topRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,6 +1611,9 @@
       <c r="M23" s="1"/>
       <c r="N23">
         <v>26491</v>
+      </c>
+      <c r="O23">
+        <v>81</v>
       </c>
       <c r="P23">
         <v>123</v>

--- a/geekbench/geekbench.xlsx
+++ b/geekbench/geekbench.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{C05CC734-0992-4C88-AFA7-52482F562631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D021925-485A-41DD-8883-2AF25CCFC59E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74AD33-EE76-4711-9A31-8162FBBBE7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17385" yWindow="630" windowWidth="18630" windowHeight="17295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="240" windowWidth="14640" windowHeight="15135" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
     <sheet name="2019" sheetId="1" r:id="rId2"/>
+    <sheet name="GB2" sheetId="3" r:id="rId3"/>
+    <sheet name="GB3" sheetId="4" r:id="rId4"/>
+    <sheet name="GB4" sheetId="5" r:id="rId5"/>
+    <sheet name="GB5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="119">
   <si>
     <t>Neue Benchmarkliste</t>
   </si>
@@ -363,12 +367,30 @@
   </si>
   <si>
     <t>Mali G31 MP2</t>
+  </si>
+  <si>
+    <t>Speedometer</t>
+  </si>
+  <si>
+    <t>Geekbench</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Multi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -432,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D653D24C-6F75-4FA8-B5E9-8831F728F129}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O24" sqref="O24"/>
+      <selection pane="topRight" activeCell="G31" sqref="A2:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,17 +757,17 @@
     <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" customWidth="1"/>
-    <col min="18" max="20" width="7.140625" customWidth="1"/>
+    <col min="14" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" customWidth="1"/>
+    <col min="19" max="21" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E2" s="10" t="s">
         <v>101</v>
       </c>
@@ -765,8 +790,12 @@
         <v>105</v>
       </c>
       <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -805,26 +834,29 @@
       <c r="N3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="12">
         <v>2</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="12">
+        <v>2</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>97</v>
       </c>
@@ -847,7 +879,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -882,7 +914,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
@@ -907,7 +939,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -936,7 +968,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
@@ -965,7 +997,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
@@ -994,7 +1026,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -1028,20 +1060,20 @@
       <c r="P10">
         <v>26</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>15</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>36</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>180</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>10005</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1068,7 +1100,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1100,14 +1132,14 @@
       <c r="P12">
         <v>43</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>156</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>3501</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1135,20 +1167,20 @@
       <c r="P13">
         <v>44</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>17</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>51</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>107</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>4007</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1180,20 +1212,20 @@
       <c r="P14">
         <v>45</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>16</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>71</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>140</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>4282</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1233,20 +1265,20 @@
       <c r="P15">
         <v>64</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>50</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>45</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>80</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3108</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1279,7 +1311,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1307,20 +1339,20 @@
       <c r="P17">
         <v>65</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>35</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>145</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>65</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>4280</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1352,20 +1384,20 @@
       <c r="P18">
         <v>84</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>57</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>118</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>71</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1865</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1405,20 +1437,20 @@
       <c r="P19">
         <v>97</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>39</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>108</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>46</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2056</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1452,20 +1484,20 @@
       <c r="P20">
         <v>153</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>48</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>297</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>36</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1296</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1506,19 +1538,22 @@
         <v>158</v>
       </c>
       <c r="Q21">
+        <v>58.5</v>
+      </c>
+      <c r="R21">
         <v>50</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>247</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>35</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1191</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1564,20 +1599,20 @@
       <c r="P22">
         <v>120</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>95</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>148</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>40</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1687</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1619,19 +1654,22 @@
         <v>123</v>
       </c>
       <c r="Q23">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="R23">
         <v>57</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>235</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>34</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1042</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1659,8 +1697,11 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1693,7 +1734,7 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -1737,19 +1778,22 @@
         <v>156</v>
       </c>
       <c r="Q26">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="R26">
         <v>76</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>198</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>32</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1379</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1791,19 +1835,22 @@
         <v>203</v>
       </c>
       <c r="Q27">
+        <v>89.8</v>
+      </c>
+      <c r="R27">
         <v>97</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>504</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>25</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>960</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1847,19 +1894,22 @@
         <v>166</v>
       </c>
       <c r="Q28">
+        <v>85.6</v>
+      </c>
+      <c r="R28">
         <v>80</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>260</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>29</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1270</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1906,20 +1956,21 @@
       <c r="P29" s="1">
         <v>98</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1"/>
+      <c r="R29">
         <v>46</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>155</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>47</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1906</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1959,20 +2010,20 @@
       <c r="P30">
         <v>260</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>171</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>364</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>22</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>809</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2011,7 +2062,7 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2071,7 +2122,8 @@
       <c r="G39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
@@ -2079,7 +2131,7 @@
     <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2754,4 +2806,1139 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFE4A6-AE4B-45BA-84C7-57BDAF1D1BCF}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3BA358-599D-4E9C-B956-65D7427FA614}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5">
+        <v>724</v>
+      </c>
+      <c r="E2" s="5">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
+        <v>645</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1190</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2284</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2626</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1748</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2058</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF8A044-05E4-4190-83DE-EADC779C8223}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5">
+        <v>915</v>
+      </c>
+      <c r="F2" s="5">
+        <v>878</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="5">
+        <v>465</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1271</v>
+      </c>
+      <c r="G3" s="6">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="5">
+        <v>755</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2105</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5">
+        <v>835</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2892</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="5">
+        <v>845</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4187</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1088</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3527</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1303</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2219</v>
+      </c>
+      <c r="G8" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1719</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3741</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1536</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2523</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1717</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1814</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4335</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2647</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5122</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2793</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5263</v>
+      </c>
+      <c r="G14" s="1">
+        <v>16183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3017</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5716</v>
+      </c>
+      <c r="G15" s="1">
+        <v>12290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3095</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5825</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>3512</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5972</v>
+      </c>
+      <c r="G17" s="1">
+        <v>12874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2098</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6359</v>
+      </c>
+      <c r="G18" s="1">
+        <v>22603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3763</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6920</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>3953</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9527</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4402</v>
+      </c>
+      <c r="F21" s="1">
+        <v>14642</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2484</v>
+      </c>
+      <c r="F22" s="1">
+        <v>14904</v>
+      </c>
+      <c r="G22" s="1">
+        <v>79873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4428</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15582</v>
+      </c>
+      <c r="G23" s="1">
+        <v>29291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2484</v>
+      </c>
+      <c r="F24" s="1">
+        <v>14904</v>
+      </c>
+      <c r="G24" s="1">
+        <v>109221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079CC2A5-3FDF-4237-8BF0-B1BF9958AF6F}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>349</v>
+      </c>
+      <c r="F2" s="1">
+        <v>583</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>288</v>
+      </c>
+      <c r="F3" s="1">
+        <v>695</v>
+      </c>
+      <c r="G3" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1">
+        <v>549</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1229</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1">
+        <v>648</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1331</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1">
+        <v>562</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1414</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>772</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1424</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="1">
+        <v>367</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1551</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="1">
+        <v>831</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1679</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>835</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2262</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1">
+        <v>951</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3650</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1">
+        <v>546</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3829</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1">
+        <v>937</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3263</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1">
+        <v>521</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3881</v>
+      </c>
+      <c r="G14" s="1">
+        <v>36618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/geekbench/geekbench.xlsx
+++ b/geekbench/geekbench.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74AD33-EE76-4711-9A31-8162FBBBE7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233863F3-92DA-4428-B7A4-8A228DA2CD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="240" windowWidth="14640" windowHeight="15135" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="90" windowWidth="24780" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="127">
   <si>
     <t>Neue Benchmarkliste</t>
   </si>
@@ -382,6 +382,30 @@
   </si>
   <si>
     <t>Multi</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4</t>
+  </si>
+  <si>
+    <t>4 x 1500</t>
+  </si>
+  <si>
+    <t>BCM2837</t>
+  </si>
+  <si>
+    <t>BCM2711</t>
+  </si>
+  <si>
+    <t>VideoCore VI</t>
+  </si>
+  <si>
+    <t>VideoCore IV</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note 8</t>
   </si>
 </sst>
 </file>
@@ -449,14 +473,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D653D24C-6F75-4FA8-B5E9-8831F728F129}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G31" sqref="A2:G31"/>
+      <selection pane="topRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,20 +792,20 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="11" t="s">
         <v>34</v>
       </c>
@@ -834,16 +858,16 @@
       <c r="N3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>2</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="10">
         <v>2</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="10">
         <v>1</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -858,15 +882,17 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -1227,102 +1253,108 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="F15" s="1">
-        <v>583</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>695</v>
+      </c>
+      <c r="G15" s="1">
+        <v>850</v>
+      </c>
       <c r="H15" s="1">
-        <v>1536</v>
+        <v>1717</v>
       </c>
       <c r="I15" s="1">
-        <v>2523</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
-        <v>1190</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2163</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2670</v>
-      </c>
-      <c r="N15">
-        <v>11747</v>
-      </c>
-      <c r="P15">
-        <v>64</v>
-      </c>
-      <c r="R15">
-        <v>50</v>
-      </c>
-      <c r="S15">
-        <v>45</v>
-      </c>
-      <c r="T15">
-        <v>80</v>
-      </c>
-      <c r="U15">
-        <v>3108</v>
-      </c>
+        <v>4003</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7343</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E16" s="1">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="F16" s="1">
-        <v>695</v>
+        <v>1551</v>
       </c>
       <c r="G16" s="1">
-        <v>850</v>
+        <v>3101</v>
       </c>
       <c r="H16" s="1">
-        <v>1717</v>
+        <v>1912</v>
       </c>
       <c r="I16" s="1">
-        <v>4003</v>
+        <v>4926</v>
       </c>
       <c r="J16" s="1">
-        <v>7343</v>
+        <v>10132</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="N16">
+        <v>10840</v>
+      </c>
+      <c r="O16">
+        <v>28</v>
+      </c>
+      <c r="P16">
+        <v>55</v>
+      </c>
+      <c r="Q16">
+        <v>26.5</v>
+      </c>
+      <c r="R16">
+        <v>46</v>
+      </c>
+      <c r="S16">
+        <v>58</v>
+      </c>
+      <c r="T16">
+        <v>93</v>
+      </c>
+      <c r="U16">
+        <v>4465</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1332,742 +1364,787 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17">
-        <v>12300</v>
-      </c>
-      <c r="P17">
-        <v>65</v>
-      </c>
-      <c r="R17">
-        <v>35</v>
-      </c>
-      <c r="S17">
-        <v>145</v>
-      </c>
-      <c r="T17">
-        <v>65</v>
-      </c>
-      <c r="U17">
-        <v>4280</v>
+      <c r="M17" s="1">
+        <v>4874</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>349</v>
+      </c>
+      <c r="F18" s="1">
+        <v>583</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <v>1814</v>
+        <v>1536</v>
       </c>
       <c r="I18" s="1">
-        <v>4335</v>
-      </c>
-      <c r="J18" s="1">
-        <v>7600</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+        <v>2523</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>1190</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2163</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2670</v>
+      </c>
       <c r="N18">
-        <v>12201</v>
+        <v>11747</v>
       </c>
       <c r="P18">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="R18">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="S18">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="T18">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="U18">
-        <v>1865</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="1">
-        <v>549</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1229</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>2647</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5122</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>2284</v>
-      </c>
-      <c r="L19" s="1">
-        <v>4866</v>
-      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19">
-        <v>19585</v>
+        <v>12300</v>
       </c>
       <c r="P19">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="R19">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S19">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="T19">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="U19">
-        <v>2056</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>2793</v>
+        <v>1814</v>
       </c>
       <c r="I20" s="1">
-        <v>5263</v>
+        <v>4335</v>
       </c>
       <c r="J20" s="1">
-        <v>16183</v>
+        <v>7600</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20">
-        <v>21709</v>
+        <v>12201</v>
       </c>
       <c r="P20">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="R20">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="S20">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="T20">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="U20">
-        <v>1296</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E21" s="1">
-        <v>648</v>
+        <v>549</v>
       </c>
       <c r="F21" s="1">
-        <v>1331</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1781</v>
-      </c>
+        <v>1229</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>3017</v>
+        <v>2647</v>
       </c>
       <c r="I21" s="1">
-        <v>5716</v>
-      </c>
-      <c r="J21" s="1">
-        <v>12290</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+        <v>5122</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>2284</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4866</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21">
-        <v>24676</v>
+        <v>19585</v>
       </c>
       <c r="P21">
-        <v>158</v>
-      </c>
-      <c r="Q21">
-        <v>58.5</v>
+        <v>97</v>
       </c>
       <c r="R21">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="S21">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="T21">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="U21">
-        <v>1191</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="1">
-        <v>562</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1414</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1050</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1">
-        <v>3095</v>
+        <v>2793</v>
       </c>
       <c r="I22" s="1">
-        <v>5825</v>
+        <v>5263</v>
       </c>
       <c r="J22" s="1">
-        <v>6187</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2626</v>
-      </c>
-      <c r="L22" s="1">
-        <v>5677</v>
-      </c>
-      <c r="M22" s="1">
-        <v>6383</v>
-      </c>
+        <v>16183</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="N22">
-        <v>25509</v>
+        <v>21709</v>
       </c>
       <c r="P22">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="R22">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="S22">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="T22">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U22">
-        <v>1687</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E23" s="1">
-        <v>772</v>
+        <v>648</v>
       </c>
       <c r="F23" s="1">
-        <v>1424</v>
+        <v>1331</v>
       </c>
       <c r="G23" s="1">
-        <v>2834</v>
+        <v>1781</v>
       </c>
       <c r="H23" s="1">
-        <v>3512</v>
+        <v>3017</v>
       </c>
       <c r="I23" s="1">
-        <v>5972</v>
+        <v>5716</v>
       </c>
       <c r="J23" s="1">
-        <v>12874</v>
+        <v>12290</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23">
-        <v>26491</v>
-      </c>
-      <c r="O23">
-        <v>81</v>
+        <v>24676</v>
       </c>
       <c r="P23">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="Q23">
-        <v>69.900000000000006</v>
+        <v>58.5</v>
       </c>
       <c r="R23">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="S23">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="T23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U23">
-        <v>1042</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1">
+        <v>562</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1414</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1050</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3095</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5825</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6187</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2626</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5677</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6383</v>
+      </c>
+      <c r="N24">
+        <v>25509</v>
+      </c>
+      <c r="P24">
+        <v>120</v>
+      </c>
+      <c r="R24">
         <v>95</v>
       </c>
-      <c r="E24" s="1">
-        <v>367</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1551</v>
-      </c>
-      <c r="G24" s="1">
-        <v>3101</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="Q24">
-        <v>26.5</v>
+      <c r="S24">
+        <v>148</v>
+      </c>
+      <c r="T24">
+        <v>40</v>
+      </c>
+      <c r="U24">
+        <v>1687</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>772</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1424</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2834</v>
+      </c>
       <c r="H25" s="1">
-        <v>2098</v>
+        <v>3512</v>
       </c>
       <c r="I25" s="1">
-        <v>6359</v>
+        <v>5972</v>
       </c>
       <c r="J25" s="1">
-        <v>22603</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1748</v>
-      </c>
-      <c r="L25" s="1">
-        <v>5983</v>
-      </c>
+        <v>12874</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
+      <c r="N25">
+        <v>26491</v>
+      </c>
+      <c r="O25">
+        <v>81</v>
+      </c>
+      <c r="P25">
+        <v>123</v>
+      </c>
+      <c r="Q25">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="R25">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>235</v>
+      </c>
+      <c r="T25">
+        <v>34</v>
+      </c>
+      <c r="U25">
+        <v>1042</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="1">
-        <v>831</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1679</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4039</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1">
-        <v>3763</v>
+        <v>2098</v>
       </c>
       <c r="I26" s="1">
-        <v>6920</v>
+        <v>6359</v>
       </c>
       <c r="J26" s="1">
-        <v>16444</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+        <v>22603</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1748</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5983</v>
+      </c>
       <c r="M26" s="1"/>
-      <c r="N26">
-        <v>29613</v>
-      </c>
-      <c r="O26">
-        <v>88</v>
-      </c>
-      <c r="P26">
-        <v>156</v>
-      </c>
-      <c r="Q26">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="R26">
-        <v>76</v>
-      </c>
-      <c r="S26">
-        <v>198</v>
-      </c>
-      <c r="T26">
-        <v>32</v>
-      </c>
-      <c r="U26">
-        <v>1379</v>
-      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E27" s="1">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F27" s="1">
-        <v>2262</v>
+        <v>1679</v>
       </c>
       <c r="G27" s="1">
-        <v>6421</v>
+        <v>4039</v>
       </c>
       <c r="H27" s="1">
-        <v>3953</v>
+        <v>3763</v>
       </c>
       <c r="I27" s="1">
-        <v>9527</v>
+        <v>6920</v>
       </c>
       <c r="J27" s="1">
-        <v>30715</v>
+        <v>16444</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27">
-        <v>31855</v>
+        <v>29613</v>
       </c>
       <c r="O27">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P27">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="Q27">
-        <v>89.8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="R27">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="S27">
-        <v>504</v>
+        <v>198</v>
       </c>
       <c r="T27">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U27">
-        <v>960</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>951</v>
+        <v>835</v>
       </c>
       <c r="F28" s="1">
-        <v>3650</v>
+        <v>2262</v>
       </c>
       <c r="G28" s="1">
-        <v>9731</v>
+        <v>6421</v>
       </c>
       <c r="H28" s="1">
-        <v>4402</v>
+        <v>3953</v>
       </c>
       <c r="I28" s="1">
-        <v>14642</v>
+        <v>9527</v>
       </c>
       <c r="J28" s="1">
-        <v>43284</v>
+        <v>30715</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28">
-        <v>34322</v>
+        <v>31855</v>
       </c>
       <c r="O28">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P28">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="Q28">
-        <v>85.6</v>
+        <v>89.8</v>
       </c>
       <c r="R28">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="S28">
-        <v>260</v>
+        <v>504</v>
       </c>
       <c r="T28">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U28">
-        <v>1270</v>
+        <v>960</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1">
-        <v>546</v>
+        <v>951</v>
       </c>
       <c r="F29" s="1">
-        <v>3829</v>
+        <v>3650</v>
       </c>
       <c r="G29" s="1">
-        <v>20482</v>
+        <v>9731</v>
       </c>
       <c r="H29" s="1">
-        <v>2484</v>
+        <v>4402</v>
       </c>
       <c r="I29" s="1">
-        <v>14904</v>
+        <v>14642</v>
       </c>
       <c r="J29" s="1">
-        <v>79873</v>
+        <v>43284</v>
       </c>
       <c r="K29" s="1">
-        <v>2054</v>
+        <v>3435</v>
       </c>
       <c r="L29" s="1">
-        <v>14313</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1">
-        <v>20497</v>
-      </c>
-      <c r="O29" s="1">
-        <v>60</v>
-      </c>
-      <c r="P29" s="1">
+        <v>12985</v>
+      </c>
+      <c r="M29" s="1">
+        <v>11213</v>
+      </c>
+      <c r="N29">
+        <v>34322</v>
+      </c>
+      <c r="O29">
         <v>98</v>
       </c>
-      <c r="Q29" s="1"/>
+      <c r="P29">
+        <v>166</v>
+      </c>
+      <c r="Q29">
+        <v>85.6</v>
+      </c>
       <c r="R29">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="S29">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="T29">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="U29">
-        <v>1906</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1">
-        <v>937</v>
+        <v>546</v>
       </c>
       <c r="F30" s="1">
-        <v>3263</v>
+        <v>3829</v>
       </c>
       <c r="G30" s="1">
-        <v>4957</v>
+        <v>20482</v>
       </c>
       <c r="H30" s="1">
-        <v>4428</v>
+        <v>2484</v>
       </c>
       <c r="I30" s="1">
-        <v>15582</v>
+        <v>14904</v>
       </c>
       <c r="J30" s="1">
-        <v>29291</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+        <v>79873</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2054</v>
+      </c>
+      <c r="L30" s="1">
+        <v>14313</v>
+      </c>
       <c r="M30" s="1"/>
-      <c r="N30">
-        <v>39203</v>
-      </c>
-      <c r="P30">
-        <v>260</v>
-      </c>
+      <c r="N30" s="1">
+        <v>20497</v>
+      </c>
+      <c r="O30" s="1">
+        <v>60</v>
+      </c>
+      <c r="P30" s="1">
+        <v>98</v>
+      </c>
+      <c r="Q30" s="1"/>
       <c r="R30">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="S30">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="T30">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="U30">
-        <v>809</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="1">
+        <v>937</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3263</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4957</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4428</v>
+      </c>
+      <c r="I31" s="1">
+        <v>15582</v>
+      </c>
+      <c r="J31" s="1">
+        <v>29291</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31">
+        <v>39203</v>
+      </c>
+      <c r="P31">
+        <v>260</v>
+      </c>
+      <c r="R31">
+        <v>171</v>
+      </c>
+      <c r="S31">
+        <v>364</v>
+      </c>
+      <c r="T31">
+        <v>22</v>
+      </c>
+      <c r="U31">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>521</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>3881</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
         <v>36618</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="1">
         <v>2484</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>14904</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <v>109221</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K32" s="1">
         <v>2058</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L32" s="1">
         <v>14416</v>
       </c>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
@@ -2082,9 +2159,6 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="I34" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
@@ -2092,6 +2166,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
@@ -2120,6 +2197,13 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2162,15 +2246,15 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="11" t="s">
         <v>34</v>
       </c>
@@ -3616,7 +3700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079CC2A5-3FDF-4237-8BF0-B1BF9958AF6F}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>

--- a/geekbench/geekbench.xlsx
+++ b/geekbench/geekbench.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233863F3-92DA-4428-B7A4-8A228DA2CD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5405D18E-25E5-4D75-B9A1-F807CCC23888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="90" windowWidth="24780" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,12 +424,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -482,6 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,7 +773,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M25" sqref="M25"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,6 +911,13 @@
       <c r="M4" s="1">
         <v>1200</v>
       </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -993,6 +1007,13 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1367,6 +1388,13 @@
       <c r="M17" s="1">
         <v>4874</v>
       </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">

--- a/geekbench/geekbench.xlsx
+++ b/geekbench/geekbench.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5405D18E-25E5-4D75-B9A1-F807CCC23888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D725ACE-1338-44B5-B25A-5695B2837711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="90" windowWidth="24780" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="510" windowWidth="23010" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="130">
   <si>
     <t>Neue Benchmarkliste</t>
   </si>
@@ -393,9 +393,6 @@
     <t>4 x 1500</t>
   </si>
   <si>
-    <t>BCM2837</t>
-  </si>
-  <si>
     <t>BCM2711</t>
   </si>
   <si>
@@ -406,14 +403,27 @@
   </si>
   <si>
     <t>Samsung Galaxy Note 8</t>
+  </si>
+  <si>
+    <t>1 x 700</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 1B 1.2</t>
+  </si>
+  <si>
+    <t>ARM1176JZF-S</t>
+  </si>
+  <si>
+    <t>Cortex-A53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -450,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -482,13 +492,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,11 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D653D24C-6F75-4FA8-B5E9-8831F728F129}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,32 +812,32 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -861,7 +874,7 @@
       <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="3" t="s">
         <v>50</v>
       </c>
@@ -888,17 +901,17 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>119</v>
+      <c r="A4" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -908,166 +921,178 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="3">
+        <v>155</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="14">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="R4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>125887</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="5">
-        <v>915</v>
-      </c>
-      <c r="I5" s="5">
-        <v>878</v>
-      </c>
-      <c r="J5" s="6">
-        <v>11376</v>
-      </c>
-      <c r="K5" s="5">
-        <v>724</v>
-      </c>
-      <c r="L5" s="5">
-        <v>712</v>
-      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="1">
-        <v>1464</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="5">
+        <v>915</v>
+      </c>
+      <c r="I6" s="5">
+        <v>878</v>
+      </c>
+      <c r="J6" s="6">
+        <v>11376</v>
+      </c>
       <c r="K6" s="5">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="L6" s="5">
-        <v>1819</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>712</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1464</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="5">
-        <v>465</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1271</v>
-      </c>
-      <c r="J7" s="6">
-        <v>891</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5">
+        <v>645</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1819</v>
+      </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5">
-        <v>755</v>
+        <v>465</v>
       </c>
       <c r="I8" s="5">
-        <v>2105</v>
+        <v>1271</v>
       </c>
       <c r="J8" s="6">
-        <v>1569</v>
+        <v>891</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5">
-        <v>835</v>
+        <v>755</v>
       </c>
       <c r="I9" s="5">
-        <v>2892</v>
+        <v>2105</v>
       </c>
       <c r="J9" s="6">
-        <v>3364</v>
+        <v>1569</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1075,7 +1100,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>41</v>
@@ -1090,1148 +1115,1177 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="I10" s="5">
-        <v>4187</v>
+        <v>2892</v>
       </c>
       <c r="J10" s="6">
-        <v>3557</v>
+        <v>3364</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="1"/>
-      <c r="N10">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5">
+        <v>845</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4187</v>
+      </c>
+      <c r="J11" s="6">
+        <v>3557</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="1"/>
+      <c r="N11">
         <v>4697</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>26</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <v>15</v>
       </c>
-      <c r="S10">
+      <c r="S11">
         <v>36</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>180</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>10005</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>1088</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3527</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2909</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <v>1303</v>
+        <v>1088</v>
       </c>
       <c r="I12" s="1">
-        <v>2219</v>
+        <v>3527</v>
       </c>
       <c r="J12" s="1">
-        <v>542</v>
+        <v>2909</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12">
-        <v>5646</v>
-      </c>
-      <c r="P12">
-        <v>43</v>
-      </c>
-      <c r="T12">
-        <v>156</v>
-      </c>
-      <c r="U12">
-        <v>3501</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>47</v>
+      <c r="A13" t="s">
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="1">
+        <v>1303</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2219</v>
+      </c>
+      <c r="J13" s="1">
+        <v>542</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13">
-        <v>8665</v>
+        <v>5646</v>
       </c>
       <c r="P13">
-        <v>44</v>
-      </c>
-      <c r="R13">
-        <v>17</v>
-      </c>
-      <c r="S13">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="T13">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="U13">
-        <v>4007</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
+      <c r="A14" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1">
-        <v>1719</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3741</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6938</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14">
-        <v>8897</v>
+        <v>8665</v>
       </c>
       <c r="P14">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S14">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="T14">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="U14">
-        <v>4282</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>288</v>
-      </c>
-      <c r="F15" s="1">
-        <v>695</v>
-      </c>
-      <c r="G15" s="1">
-        <v>850</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="I15" s="1">
-        <v>4003</v>
+        <v>3741</v>
       </c>
       <c r="J15" s="1">
-        <v>7343</v>
+        <v>6938</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
+      <c r="N15">
+        <v>8897</v>
+      </c>
+      <c r="P15">
+        <v>45</v>
+      </c>
+      <c r="R15">
+        <v>16</v>
+      </c>
+      <c r="S15">
+        <v>71</v>
+      </c>
+      <c r="T15">
+        <v>140</v>
+      </c>
+      <c r="U15">
+        <v>4282</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="F16" s="1">
-        <v>1551</v>
+        <v>695</v>
       </c>
       <c r="G16" s="1">
-        <v>3101</v>
+        <v>850</v>
       </c>
       <c r="H16" s="1">
-        <v>1912</v>
+        <v>1717</v>
       </c>
       <c r="I16" s="1">
-        <v>4926</v>
+        <v>4003</v>
       </c>
       <c r="J16" s="1">
-        <v>10132</v>
+        <v>7343</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16">
-        <v>10840</v>
-      </c>
-      <c r="O16">
-        <v>28</v>
-      </c>
-      <c r="P16">
-        <v>55</v>
-      </c>
-      <c r="Q16">
-        <v>26.5</v>
-      </c>
-      <c r="R16">
-        <v>46</v>
-      </c>
-      <c r="S16">
-        <v>58</v>
-      </c>
-      <c r="T16">
-        <v>93</v>
-      </c>
-      <c r="U16">
-        <v>4465</v>
-      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E17" s="1">
+        <v>367</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1551</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3101</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1912</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4926</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10132</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <v>4874</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
+      <c r="M17" s="1"/>
+      <c r="N17">
+        <v>10840</v>
+      </c>
+      <c r="O17">
+        <v>28</v>
+      </c>
+      <c r="P17">
+        <v>55</v>
+      </c>
+      <c r="Q17">
+        <v>26.5</v>
+      </c>
+      <c r="R17">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <v>58</v>
+      </c>
+      <c r="T17">
+        <v>93</v>
+      </c>
+      <c r="U17">
+        <v>4465</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>349</v>
-      </c>
-      <c r="F18" s="1">
-        <v>583</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>1536</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2523</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1">
-        <v>1190</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2163</v>
-      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1">
-        <v>2670</v>
-      </c>
-      <c r="N18">
-        <v>11747</v>
-      </c>
-      <c r="P18">
-        <v>64</v>
-      </c>
-      <c r="R18">
-        <v>50</v>
-      </c>
-      <c r="S18">
-        <v>45</v>
-      </c>
-      <c r="T18">
-        <v>80</v>
-      </c>
-      <c r="U18">
-        <v>3108</v>
-      </c>
+        <v>4874</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>349</v>
+      </c>
+      <c r="F19" s="1">
+        <v>583</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="1">
+        <v>1536</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2523</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="K19" s="1">
+        <v>1190</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2163</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2670</v>
+      </c>
       <c r="N19">
-        <v>12300</v>
+        <v>11747</v>
       </c>
       <c r="P19">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R19">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S19">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="T19">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="U19">
-        <v>4280</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>1814</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4335</v>
-      </c>
-      <c r="J20" s="1">
-        <v>7600</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20">
-        <v>12201</v>
+        <v>12300</v>
       </c>
       <c r="P20">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="R20">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="S20">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="T20">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="U20">
-        <v>1865</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="1">
-        <v>549</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1229</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <v>2647</v>
+        <v>1814</v>
       </c>
       <c r="I21" s="1">
-        <v>5122</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1">
-        <v>2284</v>
-      </c>
-      <c r="L21" s="1">
-        <v>4866</v>
-      </c>
+        <v>4335</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7600</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21">
-        <v>19585</v>
+        <v>12201</v>
       </c>
       <c r="P21">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="R21">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="S21">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="T21">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="U21">
-        <v>2056</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E22" s="1">
+        <v>549</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1229</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
-        <v>2793</v>
+        <v>2647</v>
       </c>
       <c r="I22" s="1">
-        <v>5263</v>
-      </c>
-      <c r="J22" s="1">
-        <v>16183</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+        <v>5122</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1">
+        <v>2284</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4866</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22">
-        <v>21709</v>
+        <v>19585</v>
       </c>
       <c r="P22">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="R22">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S22">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="T22">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U22">
-        <v>1296</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="1">
-        <v>648</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1331</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1781</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1">
-        <v>3017</v>
+        <v>2793</v>
       </c>
       <c r="I23" s="1">
-        <v>5716</v>
+        <v>5263</v>
       </c>
       <c r="J23" s="1">
-        <v>12290</v>
+        <v>16183</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23">
-        <v>24676</v>
+        <v>21709</v>
       </c>
       <c r="P23">
-        <v>158</v>
-      </c>
-      <c r="Q23">
-        <v>58.5</v>
+        <v>153</v>
       </c>
       <c r="R23">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S23">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="T23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U23">
-        <v>1191</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1">
-        <v>562</v>
+        <v>648</v>
       </c>
       <c r="F24" s="1">
-        <v>1414</v>
+        <v>1331</v>
       </c>
       <c r="G24" s="1">
-        <v>1050</v>
+        <v>1781</v>
       </c>
       <c r="H24" s="1">
-        <v>3095</v>
+        <v>3017</v>
       </c>
       <c r="I24" s="1">
-        <v>5825</v>
+        <v>5716</v>
       </c>
       <c r="J24" s="1">
-        <v>6187</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2626</v>
-      </c>
-      <c r="L24" s="1">
-        <v>5677</v>
-      </c>
-      <c r="M24" s="1">
-        <v>6383</v>
-      </c>
+        <v>12290</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="N24">
-        <v>25509</v>
+        <v>24676</v>
       </c>
       <c r="P24">
-        <v>120</v>
+        <v>158</v>
+      </c>
+      <c r="Q24">
+        <v>58.5</v>
       </c>
       <c r="R24">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="S24">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="T24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U24">
-        <v>1687</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E25" s="1">
-        <v>772</v>
+        <v>562</v>
       </c>
       <c r="F25" s="1">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="G25" s="1">
-        <v>2834</v>
+        <v>1050</v>
       </c>
       <c r="H25" s="1">
-        <v>3512</v>
+        <v>3095</v>
       </c>
       <c r="I25" s="1">
-        <v>5972</v>
+        <v>5825</v>
       </c>
       <c r="J25" s="1">
-        <v>12874</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>6187</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2626</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5677</v>
+      </c>
+      <c r="M25" s="1">
+        <v>6383</v>
+      </c>
       <c r="N25">
-        <v>26491</v>
-      </c>
-      <c r="O25">
-        <v>81</v>
+        <v>25509</v>
       </c>
       <c r="P25">
-        <v>123</v>
-      </c>
-      <c r="Q25">
-        <v>69.900000000000006</v>
+        <v>120</v>
       </c>
       <c r="R25">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="S25">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="T25">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U25">
-        <v>1042</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>772</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1424</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2834</v>
+      </c>
       <c r="H26" s="1">
-        <v>2098</v>
+        <v>3512</v>
       </c>
       <c r="I26" s="1">
-        <v>6359</v>
+        <v>5972</v>
       </c>
       <c r="J26" s="1">
-        <v>22603</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1748</v>
-      </c>
-      <c r="L26" s="1">
-        <v>5983</v>
-      </c>
+        <v>12874</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
+      <c r="N26">
+        <v>26491</v>
+      </c>
+      <c r="O26">
+        <v>81</v>
+      </c>
+      <c r="P26">
+        <v>123</v>
+      </c>
+      <c r="Q26">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="R26">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>235</v>
+      </c>
+      <c r="T26">
+        <v>34</v>
+      </c>
+      <c r="U26">
+        <v>1042</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="1">
-        <v>831</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1679</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4039</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1">
-        <v>3763</v>
+        <v>2098</v>
       </c>
       <c r="I27" s="1">
-        <v>6920</v>
+        <v>6359</v>
       </c>
       <c r="J27" s="1">
-        <v>16444</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+        <v>22603</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1748</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5983</v>
+      </c>
       <c r="M27" s="1"/>
-      <c r="N27">
-        <v>29613</v>
-      </c>
-      <c r="O27">
-        <v>88</v>
-      </c>
-      <c r="P27">
-        <v>156</v>
-      </c>
-      <c r="Q27">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="R27">
-        <v>76</v>
-      </c>
-      <c r="S27">
-        <v>198</v>
-      </c>
-      <c r="T27">
-        <v>32</v>
-      </c>
-      <c r="U27">
-        <v>1379</v>
-      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E28" s="1">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F28" s="1">
-        <v>2262</v>
+        <v>1679</v>
       </c>
       <c r="G28" s="1">
-        <v>6421</v>
+        <v>4039</v>
       </c>
       <c r="H28" s="1">
-        <v>3953</v>
+        <v>3763</v>
       </c>
       <c r="I28" s="1">
-        <v>9527</v>
+        <v>6920</v>
       </c>
       <c r="J28" s="1">
-        <v>30715</v>
+        <v>16444</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28">
-        <v>31855</v>
+        <v>29613</v>
       </c>
       <c r="O28">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P28">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="Q28">
-        <v>89.8</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="R28">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="S28">
-        <v>504</v>
+        <v>198</v>
       </c>
       <c r="T28">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U28">
-        <v>960</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>951</v>
+        <v>835</v>
       </c>
       <c r="F29" s="1">
-        <v>3650</v>
+        <v>2262</v>
       </c>
       <c r="G29" s="1">
-        <v>9731</v>
+        <v>6421</v>
       </c>
       <c r="H29" s="1">
-        <v>4402</v>
+        <v>3953</v>
       </c>
       <c r="I29" s="1">
-        <v>14642</v>
+        <v>9527</v>
       </c>
       <c r="J29" s="1">
-        <v>43284</v>
-      </c>
-      <c r="K29" s="1">
-        <v>3435</v>
-      </c>
-      <c r="L29" s="1">
-        <v>12985</v>
-      </c>
-      <c r="M29" s="1">
-        <v>11213</v>
-      </c>
+        <v>30715</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29">
-        <v>34322</v>
+        <v>31855</v>
       </c>
       <c r="O29">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P29">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="Q29">
-        <v>85.6</v>
+        <v>89.8</v>
       </c>
       <c r="R29">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="S29">
-        <v>260</v>
+        <v>504</v>
       </c>
       <c r="T29">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U29">
-        <v>1270</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1">
-        <v>546</v>
+        <v>951</v>
       </c>
       <c r="F30" s="1">
-        <v>3829</v>
+        <v>3650</v>
       </c>
       <c r="G30" s="1">
-        <v>20482</v>
+        <v>9731</v>
       </c>
       <c r="H30" s="1">
-        <v>2484</v>
+        <v>4402</v>
       </c>
       <c r="I30" s="1">
-        <v>14904</v>
+        <v>14642</v>
       </c>
       <c r="J30" s="1">
-        <v>79873</v>
+        <v>43284</v>
       </c>
       <c r="K30" s="1">
-        <v>2054</v>
+        <v>3435</v>
       </c>
       <c r="L30" s="1">
-        <v>14313</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>20497</v>
-      </c>
-      <c r="O30" s="1">
-        <v>60</v>
-      </c>
-      <c r="P30" s="1">
+        <v>12985</v>
+      </c>
+      <c r="M30" s="1">
+        <v>11213</v>
+      </c>
+      <c r="N30">
+        <v>34322</v>
+      </c>
+      <c r="O30">
         <v>98</v>
       </c>
-      <c r="Q30" s="1"/>
+      <c r="P30">
+        <v>166</v>
+      </c>
+      <c r="Q30">
+        <v>85.6</v>
+      </c>
       <c r="R30">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="S30">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="T30">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="U30">
-        <v>1906</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1">
-        <v>937</v>
+        <v>546</v>
       </c>
       <c r="F31" s="1">
-        <v>3263</v>
+        <v>3829</v>
       </c>
       <c r="G31" s="1">
-        <v>4957</v>
+        <v>20482</v>
       </c>
       <c r="H31" s="1">
-        <v>4428</v>
+        <v>2484</v>
       </c>
       <c r="I31" s="1">
-        <v>15582</v>
+        <v>14904</v>
       </c>
       <c r="J31" s="1">
-        <v>29291</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+        <v>79873</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2054</v>
+      </c>
+      <c r="L31" s="1">
+        <v>14313</v>
+      </c>
       <c r="M31" s="1"/>
-      <c r="N31">
-        <v>39203</v>
-      </c>
-      <c r="P31">
-        <v>260</v>
-      </c>
+      <c r="N31" s="1">
+        <v>20497</v>
+      </c>
+      <c r="O31" s="1">
+        <v>60</v>
+      </c>
+      <c r="P31" s="1">
+        <v>98</v>
+      </c>
+      <c r="Q31" s="1"/>
       <c r="R31">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="S31">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="T31">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="U31">
-        <v>809</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="1">
+        <v>937</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3263</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4957</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4428</v>
+      </c>
+      <c r="I32" s="1">
+        <v>15582</v>
+      </c>
+      <c r="J32" s="1">
+        <v>29291</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32">
+        <v>39203</v>
+      </c>
+      <c r="P32">
+        <v>260</v>
+      </c>
+      <c r="R32">
+        <v>171</v>
+      </c>
+      <c r="S32">
+        <v>364</v>
+      </c>
+      <c r="T32">
+        <v>22</v>
+      </c>
+      <c r="U32">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>521</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>3881</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <v>36618</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>2484</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <v>14904</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <v>109221</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <v>2058</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <v>14416</v>
       </c>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="I35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2274,16 +2328,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="8"/>
@@ -2311,7 +2365,7 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="3" t="s">
         <v>50</v>
       </c>

--- a/geekbench/geekbench.xlsx
+++ b/geekbench/geekbench.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D725ACE-1338-44B5-B25A-5695B2837711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160B95F-1B8F-4229-8542-99946E4798F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="510" windowWidth="23010" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22185" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="137">
   <si>
     <t>Neue Benchmarkliste</t>
   </si>
@@ -415,6 +415,27 @@
   </si>
   <si>
     <t>Cortex-A53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>MacBook Air 2020 M1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>8 x 3200</t>
+  </si>
+  <si>
+    <t>7 core apple</t>
+  </si>
+  <si>
+    <t>iPad air 4</t>
+  </si>
+  <si>
+    <t>A14</t>
   </si>
 </sst>
 </file>
@@ -460,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -493,14 +514,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +811,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,32 +837,32 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -874,7 +899,7 @@
       <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="3" t="s">
         <v>50</v>
       </c>
@@ -907,7 +932,7 @@
       <c r="B4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -921,13 +946,19 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="3">
+      <c r="M4" s="1">
+        <v>255</v>
+      </c>
+      <c r="N4" s="5">
         <v>155</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="14">
+      <c r="O4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="Q4" s="16">
         <v>0.67800000000000005</v>
       </c>
       <c r="R4">
@@ -936,7 +967,9 @@
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="5">
+        <v>3631</v>
+      </c>
       <c r="U4" s="3">
         <v>125887</v>
       </c>
@@ -965,13 +998,26 @@
       <c r="M5" s="1">
         <v>1200</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
+      <c r="N5">
+        <v>1586</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R5" s="15">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1.86</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15">
+        <v>22988</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2189,7 +2235,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2228,21 +2274,55 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>238</v>
+      </c>
+      <c r="Q34">
+        <v>227</v>
+      </c>
+      <c r="S34">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>57779</v>
+      </c>
+      <c r="S35">
+        <v>1188</v>
+      </c>
+      <c r="U35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2252,35 +2332,35 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2328,16 +2408,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="8"/>
@@ -2365,7 +2445,7 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="3" t="s">
         <v>50</v>
       </c>
